--- a/Comments file.xlsx
+++ b/Comments file.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ITI\QA project Team D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nadaf\Desktop\ITI\QA\QA_workshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0873DA7-3021-4B47-B609-58593227364A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="72">
   <si>
     <t>Comment ID</t>
   </si>
@@ -32,26 +33,1777 @@
     <t>Concerining which file</t>
   </si>
   <si>
-    <t xml:space="preserve">Commented by </t>
-  </si>
-  <si>
     <t>Comment</t>
+  </si>
+  <si>
+    <t>SRS</t>
+  </si>
+  <si>
+    <t>Comment By</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment In </t>
+  </si>
+  <si>
+    <t>nada</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Signup</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+REQ-06-Signup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>password &amp; confirm password fields take a text 
+of at least eight character text and it allows special characters and numbers too.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Signup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>REQ-03-Signup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Email field should contain a valid mail format as (example@example.com). It can be a combination of numbers in and some special characters _,#  as long as it is acceptable by the format.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Signup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>REQ-10-Signup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">when the user press sign up button if any
+ field doesn’t match with the required formats referred to then a suited error message should appear.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Home Page</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+REQ-01-Home</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>when the user login successfully he will be directed to the home page 
+that has a photo gallery of the different tours available should be displayed in the middle 
+of the page also it shall contain a horizontal slider to help navigate throw the tours</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Home Page</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>REQ-02-Home:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>the photo gallery should be sorted from the highest rating to the lowest</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Home Page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">REQ-03-Home: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>there should be a view button in every tour available so user can view the trip details.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Home Page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">REQ-01-Home: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>when the user login successfully he will be directed to the home page 
+that has a photo gallery of the different tours available should be displayed in the middle
+ of the page also it shall contain a horizontal slider to help navigate throw the tours</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">D.Tour Details </t>
+  </si>
+  <si>
+    <t>It should be changed into "Destination Details"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Tour details</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>REQ-01-Tour</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>: the tour page should contain an image or many images for 
+the place and a book button and description of the trip
+ (name of the tour, Country name, duration, and cost) 
+it also should contain a rating section and feedback (rating is 5-star based) 
+it also should contain a video of the destination and a contact us button.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">I think this requirement describes the interface requirement much more, 
+it can describe our system when the user clicks on the view button in every destination available, it will navigate him to the destination page that will have different information about tours, date of the trip, cost, and flight date. </t>
+  </si>
+  <si>
+    <t>I think its generic requirement doesn't refer to the function that our system provides,
+It can be referred to as The destinations in our photo gallery sorted from the highest rating to the lowest rating, based on previous customer feedback.</t>
+  </si>
+  <si>
+    <t>starting from "it also include …."
+This requirement doesn't fit the functional requirements,
+ it describes the interface much more than the service that the system provides</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>The photo gallery is composed of different sets of destinations, 
+each one has different tours inside it.</t>
+    </r>
+  </si>
+  <si>
+    <t>There are many fields that users can mismatch or mistype their info ,
+ so is it will be a generic message for all of the above sections, 
+or it will appear the message that appropriates for that field and according to ti the type of error that happens
+In what format that the message should be appear in, is it in alert box or in in the field box will show error message.</t>
+  </si>
+  <si>
+    <t>What happens If the user typed the password and the 
+confirm password with the format but not the identical, 
+is there an appropriate message that should appear?</t>
+  </si>
+  <si>
+    <t>What is the acceptable format that should user know,
+What happen if he mistyped the format of the email.</t>
+  </si>
+  <si>
+    <t>Our system has the contact us in our menu bar, 
+not as button in any of destination pages.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Tour Details</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+REQ-02-Tour: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>when the user press the book button a confirmation message appear on the screen if user press confirm a mail is sent to the user to confirm his booking to the tour (do not need a reply on mail to confirm booking) &amp; user gets redirected to a thank you page then redirected to the home page after 3 seconds.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>I think this requirement describes the interface requirement much more, 
+it can describe our system as, the user can view rating of this page based on rating criteria of 5 star based, it has a video to help the user for gaining more knowledge on this country and book button for reservation for this trip.
+Also, it has images for every tour for each country that the tour will include.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+There is a missed requirement please read carefully below:
+This requirement doesn't describe the functional requirements that the system provides, It should be more specific as 
+When the user click the book button it will navigate him to the reservation page that will take all of his data, then a confirmation message should be apparent after the customer fill the information on the reservation page and press submit, that message will appear as alert prompt in the top of the reservation page that a confirmation mail has been sent, please check your email, then it will redirect the user to thanks for reservation page that will redirect the user to the home page within 3 seconds.
+ </t>
+  </si>
+  <si>
+    <t>There is missed requirment that include the reservation page.</t>
+  </si>
+  <si>
+    <t>Missed requirment</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Tour Details</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+REQ-04-Tour</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>: Feedback and rating are added in the database and then appear in the tour page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Tour Details</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>REQ-05-Tour</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>: when the contact us button is clicked it
+ navigates to the footer containing the contacts of the company.</t>
+    </r>
+  </si>
+  <si>
+    <t>I think this requirement is more generic, it doesn't tell how the system provides the feedback to the user,
+As the user can give a rating to the trips that he had already done, from 5-star rating appear in front of him, which 5 stars mean perfect, 1 star means not a good trip enough, and can write feedback in the feedback text field that the user can describe his good/bad experience with.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Tour Details</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+REQ-03-Tour:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> user can only rate or give feedback to tours that he had already done.</t>
+    </r>
+  </si>
+  <si>
+    <t>This requirement doesn't describe enough how the system 
+provides this rating criteria after saving to the databse.
+Please make sure that the developer knows that the feedback and rating will be saved together under the name of the user and his id.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin Functional Requirments </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I think that this requirement is not realistic, as it can be more true-to-life "when the system doesn't find the username and password of the admin in the admin table in the database, it will appear an error message "Authentication failed". </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF002060"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>A.Login</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+REQ-04-Admin_Login:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> when the check box is checked by the admin the system searches for the username and password in the admin table not user and the register button is disabled.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I think this is contradictory requirment , with requirment </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF002060"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>REQ-04-Admin_Login</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF002060"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>A.Login</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+REQ-07-Admin_Login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>: if the username or password are not found in
+ the database an error message appear with message “username or 
+password are not written correctly”.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF002060"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Add Admin</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+REQ-01-Add_Admin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>: Admins cannot sign up like normal user but 
+Admin has the ability to add another admin by clicking on add admin button 
+available in the admin panel.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF002060"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Add Admin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>REQ-03-Add_Admin</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF002060"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Add Admin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>REQ-01-Add_Admin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Admins cannot sign up like normal user but 
+Admin has the ability to add another admin by clicking on add admin button 
+available in the admin panel.</t>
+    </r>
+  </si>
+  <si>
+    <t>Is the admin page is different than user home page, and if it differ , what was inside the admin home page ?</t>
+  </si>
+  <si>
+    <t>I think this requiremnt has two different purposes, it can be divided into two requirment sto be clear enough for the developers.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Does the admin will add a name or username ?
+As this will be contraductory requirment with requirment </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">REQ-02-User_Login. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+This is redudancy , same requirment mentioned in 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>REQ-02-User_Login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This is redudancy , same requirment mentioned in 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>REQ-03-Signup.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This is redudancy , same requirment mentioned in 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>REQ-06-Signup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This is redudancy , same requirment mentioned in 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>REQ-07-Signup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF002060"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Add Admin</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+REQ-04-Add_Admin</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF002060"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Add Admin</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+REQ-06-Add_Admin </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF002060"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Add Admin</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+REQ-05-Add_Admin</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF002060"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Add Admin</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+REQ-09-Add_Admin</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF002060"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Add Admin</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+REQ-10-Add_Admin</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This is redudancy , same requirment mentioned in
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> REQ-10-Signup.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">This is redudancy , same requirment mentioned in 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>REQ-03-Signup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>REQ-04-Add_Admin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This is redudancy , same requirment mentioned in 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>REQ-04-Signup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This is redudancy , same requirment mentioned in 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>REQ-05-Signup.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF002060"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Add User</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+REQ-03-Add_User</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF002060"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Add User</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+REQ-04-Add_User</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Add User
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>REQ-05-Add_User</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Add User
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>REQ-06-Add_User</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF002060"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Add User</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+REQ-08-Add_User</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This is redudancy , same requirment mentioned in 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>REQ-07-Signup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>REQ-06-Add_Admin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This is redudancy , same requirment mentioned in
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>REQ-08-Signup.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Add User
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>REQ-10-Add_User</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This is redudancy , same requirment mentioned in
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>REQ-08-Signup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>REQ-10-Add_Admin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This is redudancy , same requirment mentioned in
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>REQ-09-Add_Admin.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Add Tour
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>REQ-01-Add_Tour</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF002060"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>add tour page should contain two text boxes (Tour name, Cost) and one check box (Country name) and a button (add image) that allows the admin to add images to the trip and a button (add trip).</t>
+    </r>
+  </si>
+  <si>
+    <t>This requirement missed important information as flight date.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF002060"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Add Tour</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+REQ-04-Add_Tour</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>: Country name is set to Egypt by default and the Admin should choose any country from the available list.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">I think this is contradictory requirment , with requirment </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>REQ-02-Add_Tour</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>.
+Is the country name will be taken in text field or just a menu list that appear to the admin.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF002060"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF002060"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -61,6 +1813,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -77,9 +1835,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,36 +2152,600 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.21875" customWidth="1"/>
-    <col min="2" max="2" width="25.5546875" customWidth="1"/>
-    <col min="3" max="3" width="36.109375" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="22.19921875" customWidth="1"/>
+    <col min="2" max="2" width="25.59765625" customWidth="1"/>
+    <col min="3" max="3" width="15.3984375" customWidth="1"/>
+    <col min="4" max="4" width="44.796875" customWidth="1"/>
+    <col min="5" max="5" width="48.69921875" customWidth="1"/>
+    <col min="6" max="6" width="19.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+    </row>
+    <row r="2" spans="1:7" ht="95.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="79.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="111" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="111" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="78" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="142.19999999999999" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="249.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="78" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="79.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="48.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" ht="79.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>15</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="95.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <v>16</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="95.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
+        <v>17</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="95.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
+        <v>18</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="78" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
+        <v>19</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
+        <v>20</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
+        <v>21</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
+        <v>22</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="11">
+        <v>23</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A26" s="11">
+        <v>24</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A27" s="11">
+        <v>25</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A28" s="11">
+        <v>26</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A29" s="11">
+        <v>27</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A30" s="11">
+        <v>28</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A31" s="11">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A32" s="11">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="11">
+        <v>32</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="64.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="11">
+        <v>33</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A16:G16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Comments file.xlsx
+++ b/Comments file.xlsx
@@ -8,17 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nadaf\Desktop\ITI\QA\QA_workshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0873DA7-3021-4B47-B609-58593227364A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A405FC8F-18AB-4572-A349-AEB22D0783ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1857,12 +1865,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1872,6 +1874,12 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2155,8 +2163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2425,92 +2433,92 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="48.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:5" ht="79.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
+      <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="11" t="s">
+      <c r="B17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="95.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
+      <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="11" t="s">
+      <c r="B18" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="95.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
+      <c r="A19" s="9">
         <v>17</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="11" t="s">
+      <c r="B19" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="95.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="11">
+      <c r="A20" s="9">
         <v>18</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="11" t="s">
+      <c r="B20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="78" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
+      <c r="A21" s="9">
         <v>19</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="11" t="s">
+      <c r="B21" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -2521,16 +2529,16 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A22" s="11">
+      <c r="A22" s="9">
         <v>20</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="13" t="s">
+      <c r="B22" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>49</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -2538,16 +2546,16 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A23" s="11">
+      <c r="A23" s="9">
         <v>21</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="13" t="s">
+      <c r="B23" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>51</v>
       </c>
       <c r="E23" s="3" t="s">
@@ -2555,16 +2563,16 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A24" s="11">
+      <c r="A24" s="9">
         <v>22</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="13" t="s">
+      <c r="B24" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>50</v>
       </c>
       <c r="E24" s="3" t="s">
@@ -2572,16 +2580,16 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="11">
+      <c r="A25" s="9">
         <v>23</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="13" t="s">
+      <c r="B25" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>52</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -2589,16 +2597,16 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A26" s="11">
+      <c r="A26" s="9">
         <v>24</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="13" t="s">
+      <c r="B26" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>53</v>
       </c>
       <c r="E26" s="3" t="s">
@@ -2606,16 +2614,16 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A27" s="11">
+      <c r="A27" s="9">
         <v>25</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="13" t="s">
+      <c r="B27" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>58</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -2623,16 +2631,16 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A28" s="11">
+      <c r="A28" s="9">
         <v>26</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="13" t="s">
+      <c r="B28" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>59</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -2640,16 +2648,16 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A29" s="11">
+      <c r="A29" s="9">
         <v>27</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="14" t="s">
+      <c r="B29" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="12" t="s">
         <v>60</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -2657,16 +2665,16 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A30" s="11">
+      <c r="A30" s="9">
         <v>28</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="14" t="s">
+      <c r="B30" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>61</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -2674,16 +2682,16 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A31" s="11">
+      <c r="A31" s="9">
         <v>30</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="13" t="s">
+      <c r="B31" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>62</v>
       </c>
       <c r="E31" s="3" t="s">
@@ -2691,16 +2699,16 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A32" s="11">
+      <c r="A32" s="9">
         <v>31</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="14" t="s">
+      <c r="B32" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="12" t="s">
         <v>65</v>
       </c>
       <c r="E32" s="3" t="s">
@@ -2708,16 +2716,16 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="11">
+      <c r="A33" s="9">
         <v>32</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="14" t="s">
+      <c r="B33" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="12" t="s">
         <v>68</v>
       </c>
       <c r="E33" s="7" t="s">
@@ -2725,13 +2733,13 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="64.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="11">
+      <c r="A34" s="9">
         <v>33</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="11" t="s">
+      <c r="B34" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="2" t="s">

--- a/Comments file.xlsx
+++ b/Comments file.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ITI\QA project Team D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\QA Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="45">
   <si>
     <t>Comment ID</t>
   </si>
@@ -46,13 +46,134 @@
     <t>Comment By</t>
   </si>
   <si>
-    <t xml:space="preserve">Comment In </t>
+    <t>Comment date</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>Assigned to</t>
+  </si>
+  <si>
+    <t>close date</t>
+  </si>
+  <si>
+    <t>comment_01</t>
+  </si>
+  <si>
+    <t>comment_02</t>
+  </si>
+  <si>
+    <t>comment_03</t>
+  </si>
+  <si>
+    <t>comment_04</t>
+  </si>
+  <si>
+    <t>comment_05</t>
+  </si>
+  <si>
+    <t>comment_06</t>
+  </si>
+  <si>
+    <t>comment_07</t>
+  </si>
+  <si>
+    <t>comment_08</t>
+  </si>
+  <si>
+    <t>comment_09</t>
+  </si>
+  <si>
+    <t>comment_10</t>
+  </si>
+  <si>
+    <t>comment_11</t>
+  </si>
+  <si>
+    <t>comment_12</t>
+  </si>
+  <si>
+    <t>comment_13</t>
+  </si>
+  <si>
+    <t>comment_14</t>
+  </si>
+  <si>
+    <t>Amr Mokhtar</t>
+  </si>
+  <si>
+    <t>No document revision table in the PMP</t>
+  </si>
+  <si>
+    <t>PMP</t>
+  </si>
+  <si>
+    <t>the timeline of the project only mentions 5 weeks no specific date</t>
+  </si>
+  <si>
+    <t>the CM plan isn't defined</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> please add more details into escalation seciton</t>
+  </si>
+  <si>
+    <t>PMP only reviewed once by the team and the comments from customer not added</t>
+  </si>
+  <si>
+    <t>multiple uploads while only 2 reviews are done</t>
+  </si>
+  <si>
+    <t>no review strategy is unified the requirements are reviewed not by checklist.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> how you will handle more than one review of PMP
+Tracibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> only SRS has IDS it should be all levels</t>
+  </si>
+  <si>
+    <t>SRS</t>
+  </si>
+  <si>
+    <t>REQ-11Signup is vague</t>
+  </si>
+  <si>
+    <t>only one version is added in the version control on 14/4 but the document was updated after that date.</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>no interfaces between modules</t>
+  </si>
+  <si>
+    <t>no modules of the system</t>
+  </si>
+  <si>
+    <t>LLD is missing</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>SMP</t>
+  </si>
+  <si>
+    <t>reviews</t>
+  </si>
+  <si>
+    <t>Tracibility matrix</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -99,29 +220,6 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="5" tint="-0.499984740745262"/>
-      <name val="Calibri Light"/>
-      <family val="1"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri Light"/>
-      <family val="1"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
       <sz val="16"/>
       <color theme="4" tint="-0.499984740745262"/>
       <name val="Calibri Light"/>
@@ -134,6 +232,27 @@
       <color rgb="FF002060"/>
       <name val="Calibri Light"/>
       <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
       <scheme val="major"/>
     </font>
   </fonts>
@@ -169,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -180,16 +299,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -197,17 +307,41 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -489,269 +623,462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.88671875" customWidth="1"/>
-    <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="48.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="68.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" ht="48.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="15">
+        <v>44685</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="16">
+        <v>44685</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="16">
+        <v>44685</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="16">
+        <v>44685</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="16">
+        <v>44685</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="17">
+        <v>44685</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="17">
+        <v>44685</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="16">
+        <v>44685</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="16">
+        <v>44685</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="16">
+        <v>44685</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="16">
+        <v>44685</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="16">
+        <v>44685</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="16">
+        <v>44685</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="16">
+        <v>44685</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="48.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="10"/>
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="7"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="10"/>
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="7"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="10"/>
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="7"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="10"/>
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="7"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="10"/>
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="7"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="10"/>
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="7"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="10"/>
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="7"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="11"/>
+    <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="8"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="11"/>
+    <row r="30" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="8"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="10"/>
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="7"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="11"/>
+    <row r="32" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="8"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
+    <row r="33" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
       <c r="D34" s="2"/>
       <c r="E34" s="3"/>
     </row>

--- a/Comments file.xlsx
+++ b/Comments file.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ITI\QA project Team D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\QA Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="45">
   <si>
     <t>Comment ID</t>
   </si>
@@ -46,13 +46,134 @@
     <t>Comment By</t>
   </si>
   <si>
-    <t xml:space="preserve">Comment In </t>
+    <t>Comment date</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>Assigned to</t>
+  </si>
+  <si>
+    <t>close date</t>
+  </si>
+  <si>
+    <t>comment_01</t>
+  </si>
+  <si>
+    <t>comment_02</t>
+  </si>
+  <si>
+    <t>comment_03</t>
+  </si>
+  <si>
+    <t>comment_04</t>
+  </si>
+  <si>
+    <t>comment_05</t>
+  </si>
+  <si>
+    <t>comment_06</t>
+  </si>
+  <si>
+    <t>comment_07</t>
+  </si>
+  <si>
+    <t>comment_08</t>
+  </si>
+  <si>
+    <t>comment_09</t>
+  </si>
+  <si>
+    <t>comment_10</t>
+  </si>
+  <si>
+    <t>comment_11</t>
+  </si>
+  <si>
+    <t>comment_12</t>
+  </si>
+  <si>
+    <t>comment_13</t>
+  </si>
+  <si>
+    <t>comment_14</t>
+  </si>
+  <si>
+    <t>Amr Mokhtar</t>
+  </si>
+  <si>
+    <t>No document revision table in the PMP</t>
+  </si>
+  <si>
+    <t>PMP</t>
+  </si>
+  <si>
+    <t>the timeline of the project only mentions 5 weeks no specific date</t>
+  </si>
+  <si>
+    <t>the CM plan isn't defined</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> please add more details into escalation seciton</t>
+  </si>
+  <si>
+    <t>PMP only reviewed once by the team and the comments from customer not added</t>
+  </si>
+  <si>
+    <t>multiple uploads while only 2 reviews are done</t>
+  </si>
+  <si>
+    <t>no review strategy is unified the requirements are reviewed not by checklist.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> how you will handle more than one review of PMP
+Tracibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> only SRS has IDS it should be all levels</t>
+  </si>
+  <si>
+    <t>SRS</t>
+  </si>
+  <si>
+    <t>REQ-11Signup is vague</t>
+  </si>
+  <si>
+    <t>only one version is added in the version control on 14/4 but the document was updated after that date.</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>no interfaces between modules</t>
+  </si>
+  <si>
+    <t>no modules of the system</t>
+  </si>
+  <si>
+    <t>LLD is missing</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>SMP</t>
+  </si>
+  <si>
+    <t>reviews</t>
+  </si>
+  <si>
+    <t>Tracibility matrix</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -99,29 +220,6 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="5" tint="-0.499984740745262"/>
-      <name val="Calibri Light"/>
-      <family val="1"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri Light"/>
-      <family val="1"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
       <sz val="16"/>
       <color theme="4" tint="-0.499984740745262"/>
       <name val="Calibri Light"/>
@@ -134,6 +232,27 @@
       <color rgb="FF002060"/>
       <name val="Calibri Light"/>
       <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
       <scheme val="major"/>
     </font>
   </fonts>
@@ -169,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -180,16 +299,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -197,17 +307,41 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -489,269 +623,462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.88671875" customWidth="1"/>
-    <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="48.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="68.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" ht="48.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="15">
+        <v>44685</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="16">
+        <v>44685</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="16">
+        <v>44685</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="16">
+        <v>44685</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="16">
+        <v>44685</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="17">
+        <v>44685</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="17">
+        <v>44685</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="16">
+        <v>44685</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="16">
+        <v>44685</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="16">
+        <v>44685</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="16">
+        <v>44685</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="16">
+        <v>44685</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="16">
+        <v>44685</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="16">
+        <v>44685</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="48.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="10"/>
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="7"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="10"/>
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="7"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="10"/>
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="7"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="10"/>
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="7"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="10"/>
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="7"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="10"/>
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="7"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="10"/>
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="7"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="11"/>
+    <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="8"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="11"/>
+    <row r="30" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="8"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="10"/>
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="7"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="11"/>
+    <row r="32" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="8"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
+    <row r="33" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
       <c r="D34" s="2"/>
       <c r="E34" s="3"/>
     </row>
